--- a/input_xlsx/Hassan 003.xlsx
+++ b/input_xlsx/Hassan 003.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biodiverskripsi\Papua\Skripsi &amp; Transkripsi\Hassan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47903CA-9D80-4788-881E-AF2488EFE935}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20620" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Literature" sheetId="6" r:id="rId3"/>
     <sheet name="Measurement" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,13 +27,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Kyle Braak</author>
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CD98E0A5-3498-464D-8C1F-A0E35C7CE151}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B62A1221-E2EF-4626-A002-493B3C61FEF9}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -303,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3F3BB270-74F1-4DCB-B8B5-71EBB6C85A4C}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -347,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -567,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -655,7 +649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -743,7 +737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -787,7 +781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -831,7 +825,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{296C6269-92AD-4202-BA90-ADA4FA29AB61}">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -875,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{3ED38722-4F9B-4031-863A-CC37137E1DB2}">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -904,13 +898,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Kyle Braak</author>
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -954,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -998,7 +992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1086,7 +1080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1184,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1228,7 +1222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{CBD564F0-F558-411F-9EA6-B347A9C3AF66}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1272,7 +1266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1316,7 +1310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1404,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1448,7 +1442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1492,7 +1486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1580,7 +1574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1624,7 +1618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{94D49537-4BE7-4234-BC89-0F660595960E}">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1653,13 +1647,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Kyle Braak</author>
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{36AAAF2B-60DB-4D04-A886-FCFB68D4557C}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1703,7 +1697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5855233F-3735-4892-B9ED-9E8A494DD76A}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1747,7 +1741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{654440DE-876B-46A0-AD15-F6A1DB049347}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1791,7 +1785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9C17C331-E974-4CC2-87EF-BF0DE1E2FBE1}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1835,7 +1829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A2A38E94-5E62-46F5-BF6D-82257421DB5D}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1879,7 +1873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7DD737BE-C816-4739-81DA-E2164ADBEC35}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1923,7 +1917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{397DE40C-8F94-4168-B2C9-39AE2BDEAD84}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1967,7 +1961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{82624C0C-C579-47F5-B3CC-8570BE7C1321}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2011,7 +2005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C7C77C63-8193-4F82-AEC0-0727572A49AD}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2055,7 +2049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{E14C9CF2-28E1-4DAE-932B-A79FD12BBA60}">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2084,12 +2078,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Kyle Braak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A9AD44FF-D45C-4CF7-8D68-1F16CECDC920}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2133,7 +2127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2177,7 +2171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{EA51D073-7D69-4871-BBDD-42ACFD92F7EF}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2202,7 +2196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2281CE55-2B75-44E9-B998-E323939D1033}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2246,7 +2240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{30A37606-FB54-415C-BC94-2ADDE96B908F}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2290,7 +2284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F05604D2-DAE8-4B31-BC64-2DB4383D2D2A}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2334,7 +2328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4D4B6592-D3BE-48AA-887F-614FC81C00AA}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2378,7 +2372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D4DD68B5-C1F0-406C-89E1-176B6CFEE35A}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2422,7 +2416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D52C51D3-943B-4902-B5FE-D5D765B0EAB6}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2471,7 +2465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="124">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -2648,12 +2642,6 @@
   </si>
   <si>
     <t>Buruway</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM002</t>
-  </si>
-  <si>
-    <t>MU</t>
   </si>
   <si>
     <t>UNCEN-2001GL-HS003-PM001-VE001</t>
@@ -2742,17 +2730,164 @@
     <t>SB adalah adalah sungai buruwai</t>
   </si>
   <si>
-    <t>MU adalah Sungai Buruwai</t>
-  </si>
-  <si>
     <t>Presesnt</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE003</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE004</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE005</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE006</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE007</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE008</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE009</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE010</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE011</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE012</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE013</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE014</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE015</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE016</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE017</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE018</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE019</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE020</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE021</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE022</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE023</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE024</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE025</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE026</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE027</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE028</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE029</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE030</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE031</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE032</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE033</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE034</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE035</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE036</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE037</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE038</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE039</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE040</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE041</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE042</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE043</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE044</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE045</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE046</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE047</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE048</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE049</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-PM001-VE050</t>
+  </si>
+  <si>
+    <t>Buaya muara</t>
+  </si>
+  <si>
+    <t>Buaya air tawar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2843,12 +2978,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3034,7 +3163,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
@@ -3048,14 +3177,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3485,35 +3611,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="9" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.58203125" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" customWidth="1"/>
     <col min="14" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="18" width="13.25" customWidth="1"/>
     <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3575,7 +3701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3592,15 +3718,15 @@
         <v>54</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="L2" s="14"/>
       <c r="M2" t="s">
         <v>46</v>
       </c>
@@ -3620,72 +3746,20 @@
         <v>58</v>
       </c>
       <c r="S2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" t="s">
-        <v>74</v>
-      </c>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K3" s="11"/>
+      <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K4" s="11"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E4" s="9"/>
+      <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3701,35 +3775,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.58203125" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.08203125" customWidth="1"/>
     <col min="15" max="15" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="83.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="83.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3782,12 +3856,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3796,16 +3870,19 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" t="s">
         <v>46</v>
       </c>
@@ -3813,18 +3890,18 @@
         <v>45</v>
       </c>
       <c r="M2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -3833,16 +3910,19 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="H3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" t="s">
         <v>46</v>
       </c>
@@ -3850,116 +3930,1877 @@
         <v>45</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
         <v>76</v>
       </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F4" s="12"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F5" s="12"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F6" s="12"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F7" s="12"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F8" s="12"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F9" s="12"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F10" s="12"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F11" s="12"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F12" s="12"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F13" s="12"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F14" s="12"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F15" s="12"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F16" s="12"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="12"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="12"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="12"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F20" s="12"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="12"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="12"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="12"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="12"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" t="s">
+        <v>45</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" t="s">
+        <v>45</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" t="s">
+        <v>45</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" t="s">
+        <v>46</v>
+      </c>
+      <c r="L42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" t="s">
+        <v>45</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K44" t="s">
+        <v>46</v>
+      </c>
+      <c r="L44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K45" t="s">
+        <v>46</v>
+      </c>
+      <c r="L45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46" t="s">
+        <v>45</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" t="s">
+        <v>45</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L48" t="s">
+        <v>45</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="P48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K49" t="s">
+        <v>46</v>
+      </c>
+      <c r="L49" t="s">
+        <v>45</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="P49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K50" t="s">
+        <v>46</v>
+      </c>
+      <c r="L50" t="s">
+        <v>45</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K51" t="s">
+        <v>46</v>
+      </c>
+      <c r="L51" t="s">
+        <v>45</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="P51" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3975,7 +5816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
@@ -3983,21 +5824,21 @@
       <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="24.08203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="34.5" customWidth="1"/>
     <col min="9" max="9" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="39.375" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -4029,33 +5870,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
       </c>
       <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4066,27 +5907,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="28.58203125" customWidth="1"/>
+    <col min="9" max="9" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>

--- a/input_xlsx/Hassan 003.xlsx
+++ b/input_xlsx/Hassan 003.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20620" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -2465,7 +2465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -2644,16 +2644,10 @@
     <t>Buruway</t>
   </si>
   <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE001</t>
-  </si>
-  <si>
     <t>Animalia</t>
   </si>
   <si>
     <t>Crocodylus porosus</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE002</t>
   </si>
   <si>
     <t>Crocodylus novaeguineae</t>
@@ -2733,154 +2727,13 @@
     <t>Presesnt</t>
   </si>
   <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE003</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE004</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE005</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE006</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE007</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE008</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE009</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE010</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE011</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE012</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE013</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE014</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE015</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE016</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE017</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE018</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE019</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE020</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE021</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE022</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE023</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE024</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE025</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE026</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE027</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE028</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE029</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE030</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE031</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE032</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE033</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE034</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE035</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE036</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE037</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE038</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE039</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE040</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE041</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE042</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE043</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE044</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE045</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE046</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE047</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE048</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE049</t>
-  </si>
-  <si>
-    <t>UNCEN-2001GL-HS003-PM001-VE050</t>
-  </si>
-  <si>
-    <t>Buaya muara</t>
-  </si>
-  <si>
-    <t>Buaya air tawar</t>
+    <t>UNCEN-2001GL-HS003-SB001</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-SB001-VE001</t>
+  </si>
+  <si>
+    <t>UNCEN-2001GL-HS003-SB001-VE002</t>
   </si>
 </sst>
 </file>
@@ -3614,15 +3467,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="8" bestFit="1" customWidth="1"/>
@@ -3706,7 +3559,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
@@ -3746,10 +3599,10 @@
         <v>58</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -3776,16 +3629,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P51"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
@@ -3858,10 +3711,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3870,16 +3723,13 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -3890,18 +3740,18 @@
         <v>45</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -3910,16 +3760,13 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" t="s">
         <v>49</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -3930,1877 +3777,116 @@
         <v>45</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="F4" s="12"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="F5" s="12"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="F6" s="12"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="F7" s="12"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="F8" s="12"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="F9" s="12"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="F10" s="12"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="F11" s="12"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="F12" s="12"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="F13" s="12"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="F14" s="12"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="F15" s="12"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="F16" s="12"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-      <c r="K16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="P16" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>122</v>
-      </c>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F17" s="12"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-      <c r="K17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="P17" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>122</v>
-      </c>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F18" s="12"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
-      <c r="K18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>122</v>
-      </c>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F19" s="12"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
-      <c r="K19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="P19" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>122</v>
-      </c>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F20" s="12"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-      <c r="K20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="P20" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>122</v>
-      </c>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F21" s="12"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
-      <c r="K21" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>122</v>
-      </c>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F22" s="12"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
-      <c r="K22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>122</v>
-      </c>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F23" s="12"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
-      <c r="K23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>122</v>
-      </c>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F24" s="12"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="P24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="K25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="P25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="K26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" t="s">
-        <v>45</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="P26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="P27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K28" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="P28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K29" t="s">
-        <v>46</v>
-      </c>
-      <c r="L29" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="P29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K30" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="P30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K31" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" t="s">
-        <v>45</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="P31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K32" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="P32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K33" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" t="s">
-        <v>45</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="P33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K34" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" t="s">
-        <v>45</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="P34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K35" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" t="s">
-        <v>45</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="P35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K36" t="s">
-        <v>46</v>
-      </c>
-      <c r="L36" t="s">
-        <v>45</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="P36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K37" t="s">
-        <v>46</v>
-      </c>
-      <c r="L37" t="s">
-        <v>45</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="P37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K38" t="s">
-        <v>46</v>
-      </c>
-      <c r="L38" t="s">
-        <v>45</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="P38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K39" t="s">
-        <v>46</v>
-      </c>
-      <c r="L39" t="s">
-        <v>45</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="P39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K40" t="s">
-        <v>46</v>
-      </c>
-      <c r="L40" t="s">
-        <v>45</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="P40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K41" t="s">
-        <v>46</v>
-      </c>
-      <c r="L41" t="s">
-        <v>45</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="P41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K42" t="s">
-        <v>46</v>
-      </c>
-      <c r="L42" t="s">
-        <v>45</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="P42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K43" t="s">
-        <v>46</v>
-      </c>
-      <c r="L43" t="s">
-        <v>45</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="P43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K44" t="s">
-        <v>46</v>
-      </c>
-      <c r="L44" t="s">
-        <v>45</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="P44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K45" t="s">
-        <v>46</v>
-      </c>
-      <c r="L45" t="s">
-        <v>45</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="P45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K46" t="s">
-        <v>46</v>
-      </c>
-      <c r="L46" t="s">
-        <v>45</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="P46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K47" t="s">
-        <v>46</v>
-      </c>
-      <c r="L47" t="s">
-        <v>45</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="P47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K48" t="s">
-        <v>46</v>
-      </c>
-      <c r="L48" t="s">
-        <v>45</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="P48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K49" t="s">
-        <v>46</v>
-      </c>
-      <c r="L49" t="s">
-        <v>45</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="P49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K50" t="s">
-        <v>46</v>
-      </c>
-      <c r="L50" t="s">
-        <v>45</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="P50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="K51" t="s">
-        <v>46</v>
-      </c>
-      <c r="L51" t="s">
-        <v>45</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="P51" t="s">
-        <v>73</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -5826,7 +3912,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.08203125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
@@ -5875,28 +3961,28 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
       </c>
       <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
